--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -12,24 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Index</t>
   </si>
   <si>
-    <t>Student No</t>
+    <t>StudentNo</t>
   </si>
   <si>
-    <t>Student Name</t>
+    <t>StudentName</t>
   </si>
   <si>
     <t>Grade</t>
   </si>
   <si>
-    <t>Class No</t>
+    <t>ClassNo</t>
   </si>
   <si>
-    <t>Class Name</t>
+    <t>ClassName</t>
   </si>
   <si>
     <t>S001</t>
@@ -44,10 +44,16 @@
     <t>计算机科学</t>
   </si>
   <si>
-    <t>S002</t>
+    <t>S003</t>
   </si>
   <si>
-    <t>李四</t>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>信息技术</t>
   </si>
 </sst>
 </file>
@@ -129,7 +135,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>85.0</v>
+        <v>60.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>8</v>
@@ -149,13 +155,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>90.0</v>
+        <v>75.0</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Index</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>计算机科学</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>李四</t>
   </si>
   <si>
     <t>S003</t>
@@ -98,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -135,7 +141,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>60.0</v>
+        <v>85.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>8</v>
@@ -155,13 +161,33 @@
         <v>11</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>75.0</v>
+        <v>90.0</v>
       </c>
       <c r="E3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>13</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>70.0</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
